--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -1,65 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF3083-C435-46BD-A954-7A2915E94F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>work_day</t>
+  </si>
+  <si>
+    <t>total_distance</t>
+  </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,11,6,10,9,5,0,1,8,4,4</t>
+  </si>
+  <si>
+    <t>7,6,3,2,5,0,1,4,4</t>
+  </si>
+  <si>
+    <t>nan,7,5,6,0,1,4,4</t>
+  </si>
+  <si>
+    <t>nan,1,2,3,0,0</t>
+  </si>
+  <si>
+    <t>1,3,nan,0,2,2</t>
+  </si>
+  <si>
+    <t>3,1,5,nan,0,4,2,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -71,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,26 +83,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -113,44 +127,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -177,15 +191,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -212,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -224,439 +236,529 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26">
@@ -667,8 +769,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>total_time</t>
   </si>
@@ -28,13 +28,19 @@
     <t>id</t>
   </si>
   <si>
-    <t>7,11,6,10,9,5,0,1,8,4,4</t>
+    <t>4,6,3,5,0,7,2,9,10,11,1,8,8</t>
   </si>
   <si>
     <t>7,6,3,2,5,0,1,4,4</t>
   </si>
   <si>
     <t>nan,7,5,6,0,1,4,4</t>
+  </si>
+  <si>
+    <t>4,6,3,5,0,7,2,1,1</t>
+  </si>
+  <si>
+    <t>5,0,6,4,1,2,7,3,3</t>
   </si>
   <si>
     <t>nan,1,2,3,0,0</t>
@@ -426,13 +432,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1964</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1964</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -538,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -552,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -566,13 +572,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -580,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -594,10 +600,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>490</v>
@@ -608,10 +614,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>490</v>
@@ -625,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>490</v>
@@ -639,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>490</v>
@@ -653,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>490</v>
@@ -667,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>490</v>
@@ -681,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>742</v>
@@ -695,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>742</v>
@@ -709,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>490</v>
@@ -723,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>490</v>
@@ -737,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>742</v>
@@ -751,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>742</v>

--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B9BD0-5F25-4928-A0DF-A9061A2010EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>total_time</t>
   </si>
@@ -27,40 +33,16 @@
   <si>
     <t>id</t>
   </si>
-  <si>
-    <t>4,6,3,5,0,7,2,9,10,11,1,8,8</t>
-  </si>
-  <si>
-    <t>7,6,3,2,5,0,1,4,4</t>
-  </si>
-  <si>
-    <t>nan,7,5,6,0,1,4,4</t>
-  </si>
-  <si>
-    <t>4,6,3,5,0,7,2,1,1</t>
-  </si>
-  <si>
-    <t>5,0,6,4,1,2,7,3,3</t>
-  </si>
-  <si>
-    <t>nan,1,2,3,0,0</t>
-  </si>
-  <si>
-    <t>1,3,nan,0,2,2</t>
-  </si>
-  <si>
-    <t>3,1,5,nan,0,4,2,2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,8 +50,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,15 +104,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +246,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -427,354 +462,359 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="D26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\路径计算\storage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B9BD0-5F25-4928-A0DF-A9061A2010EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="21420" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>total_time</t>
   </si>
@@ -33,16 +27,22 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>2,0,1,1</t>
+  </si>
+  <si>
+    <t>1,2,0,0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,15 +50,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,23 +97,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -162,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,16 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -462,259 +409,259 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -728,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -742,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -756,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -770,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -784,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -798,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -813,8 +760,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>total_time</t>
   </si>
@@ -28,10 +28,40 @@
     <t>id</t>
   </si>
   <si>
-    <t>2,0,1,1</t>
-  </si>
-  <si>
-    <t>1,2,0,0</t>
+    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254,337</t>
+  </si>
+  <si>
+    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0,337</t>
+  </si>
+  <si>
+    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274,335</t>
+  </si>
+  <si>
+    <t>367,335,337,426,151,399,427,334,336,0,150,398,368,335</t>
+  </si>
+  <si>
+    <t>365,367,366,334,335,337,336,0,368,335</t>
+  </si>
+  <si>
+    <t>367,182,426,399,427,0,181,398,368,335</t>
+  </si>
+  <si>
+    <t>249,243,365,367,366,250,244,0,368,335</t>
+  </si>
+  <si>
+    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215,181</t>
+  </si>
+  <si>
+    <t>367,212,426,213,399,427,214,0,398,368,215,0</t>
+  </si>
+  <si>
+    <t>367,426,399,427,214,0,398,368,215,215</t>
+  </si>
+  <si>
+    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254,243</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -389,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>21590</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>21590</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>15758</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>15758</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>250</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>250</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>250</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>250</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,6 +786,146 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>0</v>
       </c>
     </row>

--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -28,13 +28,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254,337</t>
-  </si>
-  <si>
-    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0,337</t>
-  </si>
-  <si>
-    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274,335</t>
+    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355,337</t>
+  </si>
+  <si>
+    <t>246,0,243,319,244,245,318,337</t>
+  </si>
+  <si>
+    <t>275,257,273,279,319,244,280,274,281,258,183,182,368,278,0,277,243,276,367,245,318,246,282,335</t>
   </si>
   <si>
     <t>367,335,337,426,151,399,427,334,336,0,150,398,368,335</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>33246</v>
+        <v>34122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>33246</v>
+        <v>34122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>21590</v>
+        <v>22122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>21590</v>
+        <v>22122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>15758</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>15758</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -28,34 +28,34 @@
     <t>id</t>
   </si>
   <si>
-    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355,337</t>
-  </si>
-  <si>
-    <t>246,0,243,319,244,245,318,337</t>
-  </si>
-  <si>
-    <t>275,257,273,279,319,244,280,274,281,258,183,182,368,278,0,277,243,276,367,245,318,246,282,335</t>
-  </si>
-  <si>
-    <t>367,335,337,426,151,399,427,334,336,0,150,398,368,335</t>
-  </si>
-  <si>
-    <t>365,367,366,334,335,337,336,0,368,335</t>
-  </si>
-  <si>
-    <t>367,182,426,399,427,0,181,398,368,335</t>
-  </si>
-  <si>
-    <t>249,243,365,367,366,250,244,0,368,335</t>
-  </si>
-  <si>
-    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215,181</t>
-  </si>
-  <si>
-    <t>367,212,426,213,399,427,214,0,398,368,215,0</t>
-  </si>
-  <si>
-    <t>367,426,399,427,214,0,398,368,215,215</t>
+    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430,337</t>
+  </si>
+  <si>
+    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430,337</t>
+  </si>
+  <si>
+    <t>399,398,368,0,430,403,370,374,280,244,426,372,243,279,373,462,371,402,375,367,431,427,461,335</t>
+  </si>
+  <si>
+    <t>245,257,183,402,243,277,278,258,273,246,462,368,367,318,281,319,182,431,282,461,0,276,274,279,403,280,244,275,430,335</t>
+  </si>
+  <si>
+    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371,335</t>
+  </si>
+  <si>
+    <t>372,214,0,319,215,398,399,368,427,367,426,371,318,335</t>
+  </si>
+  <si>
+    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371,335</t>
+  </si>
+  <si>
+    <t>426,269,318,315,343,362,427,213,282,201,319,313,340,209,215,367,280,301,211,245,0,204,399,178,365,316,264,314,212,177,398,179,299,361,180,183,279,317,344,341,263,359,176,203,182,202,300,214,320,321,281,210,368,208,345,181,312,372,323,244,371,207,360,311,270,206,366,342,322,298,310,181</t>
+  </si>
+  <si>
+    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283,0</t>
+  </si>
+  <si>
+    <t>426,269,242,359,176,203,182,362,427,202,214,213,184,368,208,201,181,367,211,245,244,0,243,204,399,178,207,360,311,270,212,206,177,398,179,205,299,361,298,310,183,215</t>
   </si>
   <si>
     <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254,243</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>34122</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>34122</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>22122</v>
+        <v>25982</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>22122</v>
+        <v>25982</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>16342</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>16342</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>11152</v>
+        <v>12456</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>11152</v>
+        <v>12456</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7908</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>7908</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>9698</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>9698</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>8130</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>8130</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>5680</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>5680</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>4218</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>4218</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>2780</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>2780</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>1546</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>1546</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -28,37 +28,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430,337</t>
-  </si>
-  <si>
-    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430,337</t>
-  </si>
-  <si>
-    <t>399,398,368,0,430,403,370,374,280,244,426,372,243,279,373,462,371,402,375,367,431,427,461,335</t>
-  </si>
-  <si>
-    <t>245,257,183,402,243,277,278,258,273,246,462,368,367,318,281,319,182,431,282,461,0,276,274,279,403,280,244,275,430,335</t>
-  </si>
-  <si>
-    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371,335</t>
-  </si>
-  <si>
-    <t>372,214,0,319,215,398,399,368,427,367,426,371,318,335</t>
-  </si>
-  <si>
-    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371,335</t>
-  </si>
-  <si>
-    <t>426,269,318,315,343,362,427,213,282,201,319,313,340,209,215,367,280,301,211,245,0,204,399,178,365,316,264,314,212,177,398,179,299,361,180,183,279,317,344,341,263,359,176,203,182,202,300,214,320,321,281,210,368,208,345,181,312,372,323,244,371,207,360,311,270,206,366,342,322,298,310,181</t>
-  </si>
-  <si>
-    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283,0</t>
-  </si>
-  <si>
-    <t>426,269,242,359,176,203,182,362,427,202,214,213,184,368,208,201,181,367,211,245,244,0,243,204,399,178,207,360,311,270,212,206,177,398,179,205,299,361,298,310,183,215</t>
-  </si>
-  <si>
-    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254,243</t>
+    <t>201,182,213,204,212,184,270,214,420,0,269,310,181,203,177,183,202,176,421,211,311,337</t>
+  </si>
+  <si>
+    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457,337</t>
+  </si>
+  <si>
+    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457,335</t>
+  </si>
+  <si>
+    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457,335</t>
+  </si>
+  <si>
+    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457,335</t>
+  </si>
+  <si>
+    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457,335</t>
+  </si>
+  <si>
+    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457,335</t>
+  </si>
+  <si>
+    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457,181</t>
+  </si>
+  <si>
+    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457,0</t>
+  </si>
+  <si>
+    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457,215</t>
+  </si>
+  <si>
+    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457,243</t>
   </si>
   <si>
     <t>0</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>44116</v>
+        <v>46928</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>44116</v>
+        <v>46928</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>25982</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>25982</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>19152</v>
+        <v>21658</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>19152</v>
+        <v>21658</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>12456</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>12456</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>8108</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>8108</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>10098</v>
+        <v>12604</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>10098</v>
+        <v>12604</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>8330</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>8330</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>8186</v>
+        <v>10442</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>8186</v>
+        <v>10442</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>4418</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>4418</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>5336</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>5336</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -724,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>1506</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -738,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>1506</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>11098</v>
+        <v>15722</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>11098</v>
+        <v>15722</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -28,37 +28,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>201,182,213,204,212,184,270,214,420,0,269,310,181,203,177,183,202,176,421,211,311,337</t>
-  </si>
-  <si>
-    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457,337</t>
-  </si>
-  <si>
-    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457,335</t>
-  </si>
-  <si>
-    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457,335</t>
-  </si>
-  <si>
-    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457,335</t>
-  </si>
-  <si>
-    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457,335</t>
-  </si>
-  <si>
-    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457,335</t>
-  </si>
-  <si>
-    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457,181</t>
-  </si>
-  <si>
-    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457,0</t>
-  </si>
-  <si>
-    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457,215</t>
-  </si>
-  <si>
-    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457,243</t>
+    <t>605,494,282,311,293,556,348,0,280,315,321,284,330,245,353,180,276,201,248,488,279,209,439,211,290,326,263,398,319,360,300,257,356,184,329,324,213,206,316,367,271,313,269,183,332,249,343,600,283,606,355,310,291,359,208,599,286,342,203,603,426,244,317,602,350,325,242,289,215,281,296,185,371,632,254,487,555,427,362,361,518,341,492,287,214,519,357,351,345,251,250,179,301,294,352,181,288,662,354,247,272,285,327,399,663,210,178,635,318,265,320,458,493,204,212,634,333,633,253,298,438,368,176,275,252,344,314,246,256,661,299,328,660,264,207,630,266,331,274,349,604,255,601,457,346,267,491,322,323,243,340,295,268,273,631,182,292,347,202,177,270,312,372,337</t>
+  </si>
+  <si>
+    <t>181,555,519,299,320,202,212,206,178,359,518,180,430,179,606,269,457,603,317,244,312,431,345,316,321,214,182,399,203,600,245,360,342,282,458,314,362,361,340,372,204,398,522,201,319,208,280,322,523,426,281,313,213,632,177,556,209,599,0,602,315,341,310,210,488,215,366,264,604,487,365,211,343,207,183,427,176,344,311,631,263,301,368,270,300,279,367,630,318,298,605,601,323,492,491,633,371,337</t>
+  </si>
+  <si>
+    <t>181,519,205,213,299,242,177,202,206,212,599,178,359,0,518,602,243,310,179,606,269,457,603,488,604,244,487,211,176,214,207,399,203,427,182,183,311,600,360,245,368,458,270,362,361,367,204,184,398,522,298,605,601,201,492,495,462,494,461,208,491,523,426,335</t>
+  </si>
+  <si>
+    <t>181,242,519,213,299,212,599,0,518,602,464,243,310,606,269,457,603,488,463,604,244,487,211,214,399,182,427,183,311,600,245,368,458,270,367,184,398,298,605,601,495,462,494,461,426,335</t>
+  </si>
+  <si>
+    <t>519,273,299,213,212,599,274,0,518,602,430,457,488,215,244,487,431,214,399,182,427,183,600,245,368,458,279,367,398,298,601,495,462,494,461,280,426,335</t>
+  </si>
+  <si>
+    <t>600,245,569,368,599,0,367,243,398,318,399,488,568,319,366,244,487,365,481,246,480,335</t>
+  </si>
+  <si>
+    <t>403,281,273,277,599,274,0,243,430,257,366,244,276,365,431,246,182,183,600,245,402,278,368,282,258,279,367,275,318,522,319,462,461,280,523,335</t>
+  </si>
+  <si>
+    <t>371,518,426,458,372,461,335,492,398,457,462,367,150,487,488,334,368,439,336,337,438,519,0,151,491,399,427,181</t>
+  </si>
+  <si>
+    <t>519,335,0,334,518,0</t>
+  </si>
+  <si>
+    <t>371,518,426,458,372,461,335,492,398,457,462,367,487,488,334,368,336,337,403,519,0,491,402,399,427,215</t>
+  </si>
+  <si>
+    <t>298,519,398,340,368,274,299,438,181,518,341,439,399,311,310,426,367,0,273,427,182,243</t>
   </si>
   <si>
     <t>0</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>46928</v>
+        <v>65742</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>46928</v>
+        <v>65742</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>28638</v>
+        <v>35890</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>28638</v>
+        <v>35890</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>21658</v>
+        <v>25854</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>21658</v>
+        <v>25854</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>14862</v>
+        <v>18748</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>14862</v>
+        <v>18748</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>10514</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>10514</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>12604</v>
+        <v>15704</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>12604</v>
+        <v>15704</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>10836</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>10836</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>10442</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>10442</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>7026</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>7026</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>6492</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>6492</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -724,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>2662</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -738,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>2662</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>15722</v>
+        <v>16574</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>15722</v>
+        <v>16574</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/storage/driver.xlsx
+++ b/storage/driver.xlsx
@@ -28,37 +28,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>605,494,282,311,293,556,348,0,280,315,321,284,330,245,353,180,276,201,248,488,279,209,439,211,290,326,263,398,319,360,300,257,356,184,329,324,213,206,316,367,271,313,269,183,332,249,343,600,283,606,355,310,291,359,208,599,286,342,203,603,426,244,317,602,350,325,242,289,215,281,296,185,371,632,254,487,555,427,362,361,518,341,492,287,214,519,357,351,345,251,250,179,301,294,352,181,288,662,354,247,272,285,327,399,663,210,178,635,318,265,320,458,493,204,212,634,333,633,253,298,438,368,176,275,252,344,314,246,256,661,299,328,660,264,207,630,266,331,274,349,604,255,601,457,346,267,491,322,323,243,340,295,268,273,631,182,292,347,202,177,270,312,372,337</t>
-  </si>
-  <si>
-    <t>181,555,519,299,320,202,212,206,178,359,518,180,430,179,606,269,457,603,317,244,312,431,345,316,321,214,182,399,203,600,245,360,342,282,458,314,362,361,340,372,204,398,522,201,319,208,280,322,523,426,281,313,213,632,177,556,209,599,0,602,315,341,310,210,488,215,366,264,604,487,365,211,343,207,183,427,176,344,311,631,263,301,368,270,300,279,367,630,318,298,605,601,323,492,491,633,371,337</t>
-  </si>
-  <si>
-    <t>181,519,205,213,299,242,177,202,206,212,599,178,359,0,518,602,243,310,179,606,269,457,603,488,604,244,487,211,176,214,207,399,203,427,182,183,311,600,360,245,368,458,270,362,361,367,204,184,398,522,298,605,601,201,492,495,462,494,461,208,491,523,426,335</t>
-  </si>
-  <si>
-    <t>181,242,519,213,299,212,599,0,518,602,464,243,310,606,269,457,603,488,463,604,244,487,211,214,399,182,427,183,311,600,245,368,458,270,367,184,398,298,605,601,495,462,494,461,426,335</t>
-  </si>
-  <si>
-    <t>519,273,299,213,212,599,274,0,518,602,430,457,488,215,244,487,431,214,399,182,427,183,600,245,368,458,279,367,398,298,601,495,462,494,461,280,426,335</t>
-  </si>
-  <si>
-    <t>600,245,569,368,599,0,367,243,398,318,399,488,568,319,366,244,487,365,481,246,480,335</t>
-  </si>
-  <si>
-    <t>403,281,273,277,599,274,0,243,430,257,366,244,276,365,431,246,182,183,600,245,402,278,368,282,258,279,367,275,318,522,319,462,461,280,523,335</t>
-  </si>
-  <si>
-    <t>371,518,426,458,372,461,335,492,398,457,462,367,150,487,488,334,368,439,336,337,438,519,0,151,491,399,427,181</t>
-  </si>
-  <si>
-    <t>519,335,0,334,518,0</t>
-  </si>
-  <si>
-    <t>371,518,426,458,372,461,335,492,398,457,462,367,487,488,334,368,336,337,403,519,0,491,402,399,427,215</t>
-  </si>
-  <si>
-    <t>298,519,398,340,368,274,299,438,181,518,341,439,399,311,310,426,367,0,273,427,182,243</t>
+    <t>592,500,619,403,405,621,665,427,606,584,639,532,620,514,682,370,510,687,518,505,513,366,591,509,557,587,416,524,250,273,214,671,692,369,212,596,243,615,624,404,399,334,617,215,517,414,523,462,569,616,492,496,680,516,586,595,567,504,668,674,534,522,503,677,495,552,407,598,406,398,411,507,560,647,535,245,667,673,371,573,457,625,418,368,530,599,367,251,648,497,463,498,654,646,372,658,655,683,689,684,600,256,491,527,672,572,335,410,519,531,686,659,408,461,641,533,623,0,678,494,663,604,499,419,614,688,568,528,558,337,601,589,661,511,464,679,669,553,693,643,590,244,660,676,413,501,529,627,554,555,666,662,559,502,691,638,603,506,249,664,274,183,570,415,653,622,417,187,247,288,652,426,561,287,412,409,657,685,675,248,246,618,640,508,188,644,670,594,649,556,525,253,336,493,626,656,526,488,458,512,585,645,252,182,365,681,605,547,583,402,593,213,254,546,487,588,255,690,650,337</t>
+  </si>
+  <si>
+    <t>573,258,399,518,464,638,605,606,461,427,521,398,457,463,488,243,603,367,214,0,249,372,530,438,368,604,495,462,458,520,639,615,371,426,522,644,614,212,487,257,494,531,519,645,213,439,523,572,250,215,244,337</t>
+  </si>
+  <si>
+    <t>573,258,399,518,464,638,461,427,398,521,457,463,488,367,214,0,372,530,438,368,462,458,520,639,615,371,426,522,644,526,614,212,525,487,257,531,519,645,213,439,523,572,215,335</t>
+  </si>
+  <si>
+    <t>491,573,399,518,638,461,427,398,457,488,367,214,0,372,438,368,462,458,319,639,615,371,426,644,526,614,558,525,487,519,645,439,557,572,492,215,318,335</t>
+  </si>
+  <si>
+    <t>491,573,399,151,518,461,638,398,427,457,488,336,0,367,372,368,438,462,458,334,639,615,150,371,335,426,644,526,614,558,525,337,487,519,645,557,439,572,492,335</t>
+  </si>
+  <si>
+    <t>462,279,278,367,281,246,243,599,650,403,273,280,523,276,245,277,0,275,461,318,431,244,402,430,584,600,183,257,649,583,258,366,274,365,282,182,368,522,319,335</t>
+  </si>
+  <si>
+    <t>558,368,488,439,615,519,318,572,372,639,557,214,438,638,525,487,457,367,492,573,518,526,614,371,319,0,462,426,461,458,215,427,399,398,491,335</t>
+  </si>
+  <si>
+    <t>398,558,457,336,372,614,368,462,488,427,151,461,150,615,572,639,525,526,573,371,399,0,426,638,337,518,334,487,367,491,492,519,335,557,458,439,438,181</t>
+  </si>
+  <si>
+    <t>398,532,373,438,372,368,462,427,461,572,430,639,244,531,573,371,399,402,431,0,426,638,464,279,374,534,546,367,533,366,535,547,432,403,463,433,280,375,243,370,439,365,530,0</t>
+  </si>
+  <si>
+    <t>398,402,0,426,638,396,546,368,367,181,491,492,427,182,547,572,403,639,397,573,399,215</t>
+  </si>
+  <si>
+    <t>518,334,487,638,0,567,568,488,335,519,639,243</t>
   </si>
   <si>
     <t>0</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>65742</v>
+        <v>85282</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>65742</v>
+        <v>85282</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>35890</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>35890</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>25854</v>
+        <v>31486</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>25854</v>
+        <v>31486</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>18748</v>
+        <v>23118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>18748</v>
+        <v>23118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>12966</v>
+        <v>16732</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>12966</v>
+        <v>16732</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>15704</v>
+        <v>18868</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>15704</v>
+        <v>18868</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>11930</v>
+        <v>14086</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>11930</v>
+        <v>14086</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>11186</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>11186</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>9364</v>
+        <v>10718</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>9364</v>
+        <v>10718</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>6944</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>6944</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -724,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>3312</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -738,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>3312</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>16574</v>
+        <v>19732</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>16574</v>
+        <v>19732</v>
       </c>
     </row>
     <row r="26" spans="1:4">
